--- a/biology/Médecine/Trouble_de_la_pensée/Trouble_de_la_pensée.xlsx
+++ b/biology/Médecine/Trouble_de_la_pensée/Trouble_de_la_pensée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trouble_de_la_pens%C3%A9e</t>
+          <t>Trouble_de_la_pensée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En psychiatrie, le trouble de la pensée (TP) ou le désordre de la pensée survient lorsqu'un individu souffre de problèmes émotionnels ou comportementaux. Les symptômes peuvent inclure une fausse idée de soi-même, de la paranoïa, entendre ou voir ce que d'autres individus ne perçoivent pas, et une pensée ou parole déconnectée de la réalité ; des sentiments qui ne conviennent pas à la situation présente[1]. Les patients souffrent d'une communication incompréhensible (de la parole à l'écriture), présumée refléter la pensée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En psychiatrie, le trouble de la pensée (TP) ou le désordre de la pensée survient lorsqu'un individu souffre de problèmes émotionnels ou comportementaux. Les symptômes peuvent inclure une fausse idée de soi-même, de la paranoïa, entendre ou voir ce que d'autres individus ne perçoivent pas, et une pensée ou parole déconnectée de la réalité ; des sentiments qui ne conviennent pas à la situation présente. Les patients souffrent d'une communication incompréhensible (de la parole à l'écriture), présumée refléter la pensée.
 Ces désordres peuvent être de plusieurs types : 
 hallucination ou délire, croyances ;
 désorganisation de la pensée ;
